--- a/src/main/resources/purchaseOrderDeliveryTemplate.xlsx
+++ b/src/main/resources/purchaseOrderDeliveryTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="280" windowWidth="25040" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="3520" windowWidth="25360" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,14 @@
     <t xml:space="preserve">  Order From：</t>
   </si>
   <si>
-    <t xml:space="preserve">  到货日期：</t>
+    <t>到货日期：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,13 +67,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -99,6 +92,18 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,34 +155,34 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,50 +525,58 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="19" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
